--- a/ClientList.xlsx
+++ b/ClientList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0-Project\Keele_F_Reed_C-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Keele_F_Reed_C-P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F700CE8-C1A7-4897-B18C-5A278965D0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F2007-9834-4590-AA13-6A86D272C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34590" yWindow="3720" windowWidth="21600" windowHeight="11835" xr2:uid="{022B787D-45AC-4743-9C03-998D2CE48FCF}"/>
+    <workbookView xWindow="-21375" yWindow="4155" windowWidth="18000" windowHeight="9300" xr2:uid="{022B787D-45AC-4743-9C03-998D2CE48FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Clients</t>
-  </si>
-  <si>
     <t>Jim</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Jeff</t>
+  </si>
+  <si>
+    <t>chicken</t>
   </si>
 </sst>
 </file>
@@ -397,31 +397,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A03404-36EE-4B72-9DE5-660E87F9062A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
